--- a/biology/Zoologie/Encyocrypta_neocaledonica/Encyocrypta_neocaledonica.xlsx
+++ b/biology/Zoologie/Encyocrypta_neocaledonica/Encyocrypta_neocaledonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta neocaledonica est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta neocaledonica est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 18 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 18 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Nouvelle-Calédonie.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
